--- a/ArticleManage/main_working_folder/output_folders/Data 150 Textural characteristics of activated/Data150_all_graphs_excel.xlsx
+++ b/ArticleManage/main_working_folder/output_folders/Data 150 Textural characteristics of activated/Data150_all_graphs_excel.xlsx
@@ -5,16 +5,16 @@
     <workbookView/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 4 10stC  0-1-0-700 " sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 4 30stC  0-1-0-700 " sheetId="2" r:id="rId4"/>
-    <sheet name="Figure 4 50stC  0-1-0-700 " sheetId="3" r:id="rId5"/>
-    <sheet name="Figure 4 5stC  0-1-0-700 " sheetId="4" r:id="rId6"/>
-    <sheet name="Figure 6 100min  0-1-0-900 " sheetId="5" r:id="rId7"/>
-    <sheet name="Figure 6 120min  0-1-0-900 " sheetId="6" r:id="rId8"/>
-    <sheet name="Figure 6 140min  0-1-0-900 " sheetId="7" r:id="rId9"/>
-    <sheet name="Figure 6 160min  0-1-0-900 " sheetId="8" r:id="rId10"/>
-    <sheet name="Figure 6 60min  0-1-0-900 " sheetId="9" r:id="rId11"/>
-    <sheet name="Figure 6 80min  0-1-0-900 " sheetId="10" r:id="rId12"/>
+    <sheet name="Figure 4 10stC  0&amp;1&amp;0&amp;700 " sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 4 30stC  0&amp;1&amp;0&amp;700 " sheetId="2" r:id="rId4"/>
+    <sheet name="Figure 4 50stC  0&amp;1&amp;0&amp;700 " sheetId="3" r:id="rId5"/>
+    <sheet name="Figure 4 5stC  0&amp;1&amp;0&amp;700 " sheetId="4" r:id="rId6"/>
+    <sheet name="Figure 6 100min  0&amp;1&amp;0&amp;900 " sheetId="5" r:id="rId7"/>
+    <sheet name="Figure 6 120min  0&amp;1&amp;0&amp;900 " sheetId="6" r:id="rId8"/>
+    <sheet name="Figure 6 140min  0&amp;1&amp;0&amp;900 " sheetId="7" r:id="rId9"/>
+    <sheet name="Figure 6 160min  0&amp;1&amp;0&amp;900 " sheetId="8" r:id="rId10"/>
+    <sheet name="Figure 6 60min  0&amp;1&amp;0&amp;900 " sheetId="9" r:id="rId11"/>
+    <sheet name="Figure 6 80min  0&amp;1&amp;0&amp;900 " sheetId="10" r:id="rId12"/>
   </sheets>
   <calcPr fullCalcOnLoad="1"/>
 </workbook>
@@ -192,12 +192,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 10stC  0-1-0-700 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 10stC  0&amp;1&amp;0&amp;700 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 10stC  0-1-0-700 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 10stC  0&amp;1&amp;0&amp;700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -506,12 +506,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 80min  0-1-0-900 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6 80min  0&amp;1&amp;0&amp;900 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 80min  0-1-0-900 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6 80min  0&amp;1&amp;0&amp;900 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -820,12 +820,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 30stC  0-1-0-700 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 30stC  0&amp;1&amp;0&amp;700 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 30stC  0-1-0-700 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 30stC  0&amp;1&amp;0&amp;700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1134,12 +1134,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 50stC  0-1-0-700 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 50stC  0&amp;1&amp;0&amp;700 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 50stC  0-1-0-700 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 50stC  0&amp;1&amp;0&amp;700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1448,12 +1448,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 4 5stC  0-1-0-700 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 4 5stC  0&amp;1&amp;0&amp;700 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 4 5stC  0-1-0-700 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 4 5stC  0&amp;1&amp;0&amp;700 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -1762,12 +1762,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 100min  0-1-0-900 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6 100min  0&amp;1&amp;0&amp;900 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 100min  0-1-0-900 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6 100min  0&amp;1&amp;0&amp;900 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2076,12 +2076,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 120min  0-1-0-900 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6 120min  0&amp;1&amp;0&amp;900 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 120min  0-1-0-900 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6 120min  0&amp;1&amp;0&amp;900 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2390,12 +2390,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 140min  0-1-0-900 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6 140min  0&amp;1&amp;0&amp;900 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 140min  0-1-0-900 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6 140min  0&amp;1&amp;0&amp;900 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -2704,12 +2704,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 160min  0-1-0-900 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6 160min  0&amp;1&amp;0&amp;900 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 160min  0-1-0-900 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6 160min  0&amp;1&amp;0&amp;900 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
@@ -3018,12 +3018,12 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>'Figure 6 60min  0-1-0-900 '!$A$3:$A$70</c:f>
+              <c:f>'Figure 6 60min  0&amp;1&amp;0&amp;900 '!$A$3:$A$70</c:f>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>'Figure 6 60min  0-1-0-900 '!$B$3:$B$70</c:f>
+              <c:f>'Figure 6 60min  0&amp;1&amp;0&amp;900 '!$B$3:$B$70</c:f>
               <c:numCache/>
             </c:numRef>
           </c:yVal>
